--- a/Unit Database.xlsx
+++ b/Unit Database.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4A84AAB-6435-4A13-A017-E40CBC04D3E0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E07E262-CC83-46B9-B103-2395D39A51B8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="34">
   <si>
     <t>Name</t>
   </si>
@@ -85,23 +85,63 @@
   <si>
     <t xml:space="preserve"> </t>
   </si>
+  <si>
+    <t>Japanese Spide Crab</t>
+  </si>
+  <si>
+    <t>Siren</t>
+  </si>
+  <si>
+    <t>Kraken</t>
+  </si>
+  <si>
+    <t>Hydra</t>
+  </si>
+  <si>
+    <t>Ahuizotl</t>
+  </si>
+  <si>
+    <t>Troll</t>
+  </si>
+  <si>
+    <t>Goblin</t>
+  </si>
+  <si>
+    <t>Golem</t>
+  </si>
+  <si>
+    <t>Grootslang</t>
+  </si>
+  <si>
+    <t>Giant</t>
+  </si>
+  <si>
+    <t>Cerberus</t>
+  </si>
+  <si>
+    <t>Cyclops</t>
+  </si>
+  <si>
+    <t>Ifrit</t>
+  </si>
+  <si>
+    <t>Ammit</t>
+  </si>
+  <si>
+    <t>Demon</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1153,7 +1193,7 @@
                   <a14:compatExt spid="_x0000_s1027"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7D5595A-F587-4A89-B2D0-EE3376555829}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1199,14 +1239,19 @@
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>0</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>15240</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1032" name="Check Box 8" hidden="1">
@@ -1215,7 +1260,7 @@
                   <a14:compatExt spid="_x0000_s1032"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EE169DD-7069-4D3A-8981-3C047A182249}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1255,20 +1300,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1033" name="Check Box 9" hidden="1">
@@ -1277,7 +1327,7 @@
                   <a14:compatExt spid="_x0000_s1033"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12D52F19-D1BD-44B0-923E-7E1A37924DCC}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1317,20 +1367,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1034" name="Check Box 10" hidden="1">
@@ -1339,7 +1394,7 @@
                   <a14:compatExt spid="_x0000_s1034"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB66FE1B-999A-4C46-A084-9668F88B3B78}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1379,20 +1434,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1035" name="Check Box 11" hidden="1">
@@ -1401,7 +1461,7 @@
                   <a14:compatExt spid="_x0000_s1035"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED19D5C8-4CBC-45FA-914C-9D5A4F2000E2}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1441,20 +1501,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1036" name="Check Box 12" hidden="1">
@@ -1463,7 +1528,7 @@
                   <a14:compatExt spid="_x0000_s1036"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65C5F299-7132-41EB-94A4-61D9494DA023}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1503,20 +1568,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1037" name="Check Box 13" hidden="1">
@@ -1525,7 +1595,7 @@
                   <a14:compatExt spid="_x0000_s1037"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF3E11FE-828E-467C-9B22-FCD35FD0FF9A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1565,20 +1635,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1038" name="Check Box 14" hidden="1">
@@ -1587,7 +1662,7 @@
                   <a14:compatExt spid="_x0000_s1038"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F631D393-DC36-4919-AFA1-32A0C5947424}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1627,20 +1702,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1039" name="Check Box 15" hidden="1">
@@ -1649,7 +1729,7 @@
                   <a14:compatExt spid="_x0000_s1039"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2E83B54-74A9-40F9-8450-51B9EC198DCD}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1689,20 +1769,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1040" name="Check Box 16" hidden="1">
@@ -1711,7 +1796,7 @@
                   <a14:compatExt spid="_x0000_s1040"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE4B6263-1B80-4094-BBB0-5C3E981F7369}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1751,20 +1836,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1041" name="Check Box 17" hidden="1">
@@ -1773,7 +1863,7 @@
                   <a14:compatExt spid="_x0000_s1041"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D331DB6F-8D72-422D-BB0F-7EA8E5391644}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1813,20 +1903,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1042" name="Check Box 18" hidden="1">
@@ -1835,7 +1930,7 @@
                   <a14:compatExt spid="_x0000_s1042"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D452F44D-1C03-4D67-A378-696890B05297}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1875,20 +1970,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1043" name="Check Box 19" hidden="1">
@@ -1897,7 +1997,7 @@
                   <a14:compatExt spid="_x0000_s1043"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83BC5907-D3CF-4AC6-87DE-3F719F84C6C0}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1937,20 +2037,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1044" name="Check Box 20" hidden="1">
@@ -1959,7 +2064,7 @@
                   <a14:compatExt spid="_x0000_s1044"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03B12A4B-F512-471E-A954-C910983A2DD7}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1999,20 +2104,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1045" name="Check Box 21" hidden="1">
@@ -2021,7 +2131,7 @@
                   <a14:compatExt spid="_x0000_s1045"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8736ABD8-AEC0-49EA-97CD-1CCE3DE54999}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2061,20 +2171,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1046" name="Check Box 22" hidden="1">
@@ -2083,7 +2198,7 @@
                   <a14:compatExt spid="_x0000_s1046"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D3BD45D-9C4B-43D1-B053-C83A0D50B3CB}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2123,20 +2238,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1047" name="Check Box 23" hidden="1">
@@ -2145,7 +2265,7 @@
                   <a14:compatExt spid="_x0000_s1047"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BE40822-6AEA-4A0B-81A2-824F68E478EB}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2185,20 +2305,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1048" name="Check Box 24" hidden="1">
@@ -2207,7 +2332,7 @@
                   <a14:compatExt spid="_x0000_s1048"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D7F100A-093D-45CB-808A-05E43CF6F81A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2247,20 +2372,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1049" name="Check Box 25" hidden="1">
@@ -2269,7 +2399,7 @@
                   <a14:compatExt spid="_x0000_s1049"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF561508-ABE7-482B-B544-9DBA0E9E3FA6}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2309,20 +2439,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1050" name="Check Box 26" hidden="1">
@@ -2331,7 +2466,7 @@
                   <a14:compatExt spid="_x0000_s1050"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75957E4B-52E2-4CAC-AA77-526701546E7A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2371,20 +2506,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>10</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1051" name="Check Box 27" hidden="1">
@@ -2393,7 +2533,7 @@
                   <a14:compatExt spid="_x0000_s1051"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99C5F77B-6383-49B4-B20E-8DB09080782A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2433,20 +2573,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>10</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1052" name="Check Box 28" hidden="1">
@@ -2455,7 +2600,7 @@
                   <a14:compatExt spid="_x0000_s1052"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0A1D52E-999C-4877-A9D5-666FAD93E482}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2495,20 +2640,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>11</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1053" name="Check Box 29" hidden="1">
@@ -2517,7 +2667,7 @@
                   <a14:compatExt spid="_x0000_s1053"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B4928A6-B635-4224-B537-5382C964B956}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2557,20 +2707,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>11</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1054" name="Check Box 30" hidden="1">
@@ -2579,7 +2734,7 @@
                   <a14:compatExt spid="_x0000_s1054"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{186AF010-4599-46E2-B72B-FDCCF3AA4806}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2619,20 +2774,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>12</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1055" name="Check Box 31" hidden="1">
@@ -2641,7 +2801,7 @@
                   <a14:compatExt spid="_x0000_s1055"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6251CE7E-7843-4B98-B00A-D61E2D7A7357}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2681,20 +2841,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>12</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1056" name="Check Box 32" hidden="1">
@@ -2703,7 +2868,7 @@
                   <a14:compatExt spid="_x0000_s1056"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20DF906A-1BBF-4443-9FB2-0EF1FD224592}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2743,20 +2908,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>13</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1057" name="Check Box 33" hidden="1">
@@ -2765,7 +2935,7 @@
                   <a14:compatExt spid="_x0000_s1057"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{161F494D-0E41-4A5C-948B-6A1F0B4B5997}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2805,20 +2975,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>13</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1058" name="Check Box 34" hidden="1">
@@ -2827,7 +3002,7 @@
                   <a14:compatExt spid="_x0000_s1058"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAA1F141-A311-4679-BFFF-6D3EC87F4767}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2867,20 +3042,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>14</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1059" name="Check Box 35" hidden="1">
@@ -2889,7 +3069,7 @@
                   <a14:compatExt spid="_x0000_s1059"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D229C320-0757-47BE-95E2-F1F1AA80D02B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2929,20 +3109,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>14</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1060" name="Check Box 36" hidden="1">
@@ -2951,7 +3136,7 @@
                   <a14:compatExt spid="_x0000_s1060"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A296E78-00AE-4770-BF9A-FDE301CAFE2B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2991,20 +3176,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>15</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1061" name="Check Box 37" hidden="1">
@@ -3013,7 +3203,7 @@
                   <a14:compatExt spid="_x0000_s1061"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2287D103-E180-4A83-84D5-DC1C22C8666E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3053,20 +3243,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>15</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1062" name="Check Box 38" hidden="1">
@@ -3075,7 +3270,7 @@
                   <a14:compatExt spid="_x0000_s1062"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A7F54CE-6D6A-4E66-96CB-1B57A3F77CAC}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3115,20 +3310,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1063" name="Check Box 39" hidden="1">
@@ -3137,7 +3337,7 @@
                   <a14:compatExt spid="_x0000_s1063"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEBD07B4-AE4B-40B5-B1B1-779B08CEC0B2}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3177,20 +3377,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1064" name="Check Box 40" hidden="1">
@@ -3199,7 +3404,7 @@
                   <a14:compatExt spid="_x0000_s1064"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBA2B034-DE9D-468E-8D3E-8B4379ED50C0}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3239,20 +3444,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>17</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1065" name="Check Box 41" hidden="1">
@@ -3261,7 +3471,7 @@
                   <a14:compatExt spid="_x0000_s1065"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A9C8503-4882-437F-8D9C-5C3B085BF012}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3301,20 +3511,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>17</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1066" name="Check Box 42" hidden="1">
@@ -3323,7 +3538,7 @@
                   <a14:compatExt spid="_x0000_s1066"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AAF655F-6FB8-450D-8CDE-F9346048F966}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002A040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3363,20 +3578,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1067" name="Check Box 43" hidden="1">
@@ -3385,7 +3605,7 @@
                   <a14:compatExt spid="_x0000_s1067"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C602E9F0-6E16-468C-80D7-3550CAB83389}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002B040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3425,20 +3645,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1068" name="Check Box 44" hidden="1">
@@ -3447,7 +3672,7 @@
                   <a14:compatExt spid="_x0000_s1068"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDB96955-DEC2-4155-8D06-1ECBE8D39265}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3487,20 +3712,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>19</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1069" name="Check Box 45" hidden="1">
@@ -3509,7 +3739,7 @@
                   <a14:compatExt spid="_x0000_s1069"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88A588D7-EE6C-4E00-8631-D098A41C1575}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3549,20 +3779,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>19</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1070" name="Check Box 46" hidden="1">
@@ -3571,7 +3806,7 @@
                   <a14:compatExt spid="_x0000_s1070"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5778BB28-F922-401F-B588-9D0D67C1FEAB}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3611,20 +3846,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>20</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1071" name="Check Box 47" hidden="1">
@@ -3633,7 +3873,7 @@
                   <a14:compatExt spid="_x0000_s1071"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74C8B786-4364-4DCA-AB0A-DC31FA2A7550}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002F040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3673,20 +3913,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>20</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1072" name="Check Box 48" hidden="1">
@@ -3695,7 +3940,7 @@
                   <a14:compatExt spid="_x0000_s1072"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C717C52C-AA6B-4B74-BAF5-491FBC75DF40}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000030040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3735,20 +3980,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>21</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>23</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1073" name="Check Box 49" hidden="1">
@@ -3757,7 +4007,7 @@
                   <a14:compatExt spid="_x0000_s1073"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00BF2583-A39B-474B-BAEA-365A33AF76AA}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000031040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3797,20 +4047,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>21</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>23</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1074" name="Check Box 50" hidden="1">
@@ -3819,7 +4074,7 @@
                   <a14:compatExt spid="_x0000_s1074"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D78AE073-4183-4E0B-A3A4-4BE6AAA54A34}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000032040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3859,20 +4114,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>22</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>24</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1075" name="Check Box 51" hidden="1">
@@ -3881,7 +4141,7 @@
                   <a14:compatExt spid="_x0000_s1075"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DAF87A6-647A-4706-8125-0863A659F3B6}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000033040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3921,20 +4181,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>22</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>24</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1076" name="Check Box 52" hidden="1">
@@ -3943,7 +4208,7 @@
                   <a14:compatExt spid="_x0000_s1076"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1432719-0406-4606-8F75-86ACC86162E9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3983,20 +4248,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>23</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>25</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1077" name="Check Box 53" hidden="1">
@@ -4005,7 +4275,7 @@
                   <a14:compatExt spid="_x0000_s1077"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{458DBD06-10EC-4388-9B9C-5CC3FB11FA58}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000035040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4045,20 +4315,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>23</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>25</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1078" name="Check Box 54" hidden="1">
@@ -4067,7 +4342,7 @@
                   <a14:compatExt spid="_x0000_s1078"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EE0ECFB-8FED-47B2-B40E-1B74D7A77177}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000036040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4107,20 +4382,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>24</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>26</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1079" name="Check Box 55" hidden="1">
@@ -4129,7 +4409,7 @@
                   <a14:compatExt spid="_x0000_s1079"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FB2359E-6DA9-4BB4-A86E-2F273AB2B16C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000037040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4169,20 +4449,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>24</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>26</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1080" name="Check Box 56" hidden="1">
@@ -4191,7 +4476,7 @@
                   <a14:compatExt spid="_x0000_s1080"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4820A6C0-36AC-4722-9E28-F06E1A02AD9A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000038040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4231,20 +4516,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>25</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>27</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1081" name="Check Box 57" hidden="1">
@@ -4253,7 +4543,7 @@
                   <a14:compatExt spid="_x0000_s1081"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BE6F5C6-1C02-4983-A978-3A85F7686AE5}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000039040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4293,20 +4583,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>25</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>27</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1082" name="Check Box 58" hidden="1">
@@ -4315,7 +4610,7 @@
                   <a14:compatExt spid="_x0000_s1082"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C06E9143-08D7-492F-B256-0143F63536E2}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003A040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4355,20 +4650,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>26</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>28</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1083" name="Check Box 59" hidden="1">
@@ -4377,7 +4677,7 @@
                   <a14:compatExt spid="_x0000_s1083"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54432A76-FC46-4E7C-9B78-DD4690B93D71}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003B040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4417,20 +4717,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>26</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>28</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1084" name="Check Box 60" hidden="1">
@@ -4439,7 +4744,7 @@
                   <a14:compatExt spid="_x0000_s1084"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{471DF734-5BA6-45D3-AD94-A25116DA9450}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003C040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4479,20 +4784,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>27</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>29</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1085" name="Check Box 61" hidden="1">
@@ -4501,7 +4811,7 @@
                   <a14:compatExt spid="_x0000_s1085"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9861778E-4A47-43C8-B71A-A532E68015F5}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003D040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4541,20 +4851,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>27</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>29</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1086" name="Check Box 62" hidden="1">
@@ -4563,7 +4878,7 @@
                   <a14:compatExt spid="_x0000_s1086"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42152607-57C8-4A3D-A3AF-CAC4B6825851}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003E040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4603,20 +4918,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>28</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>30</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1087" name="Check Box 63" hidden="1">
@@ -4625,7 +4945,7 @@
                   <a14:compatExt spid="_x0000_s1087"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F11D4D41-494D-442F-B4F5-742B9699A1CB}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003F040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4665,20 +4985,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>28</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>30</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1088" name="Check Box 64" hidden="1">
@@ -4687,7 +5012,7 @@
                   <a14:compatExt spid="_x0000_s1088"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96119F97-AB07-41F4-985A-C4151C2EB5B2}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000040040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4727,20 +5052,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>29</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>31</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1089" name="Check Box 65" hidden="1">
@@ -4749,7 +5079,7 @@
                   <a14:compatExt spid="_x0000_s1089"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A4BB26D-556A-41DD-9AFD-4E69F7FDB989}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000041040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4789,20 +5119,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>29</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>31</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1090" name="Check Box 66" hidden="1">
@@ -4811,7 +5146,7 @@
                   <a14:compatExt spid="_x0000_s1090"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F92A7A08-3754-48E8-BC6C-3C3E2C8CE72C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000042040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4851,20 +5186,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>30</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>32</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1091" name="Check Box 67" hidden="1">
@@ -4873,7 +5213,7 @@
                   <a14:compatExt spid="_x0000_s1091"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2802B6C7-16FA-43C8-B66A-4A537B2BE30A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000043040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4913,20 +5253,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>30</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>32</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1092" name="Check Box 68" hidden="1">
@@ -4935,7 +5280,7 @@
                   <a14:compatExt spid="_x0000_s1092"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{038D32D5-5203-4817-B38E-01988BE313DB}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000044040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4975,20 +5320,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>31</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>33</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1093" name="Check Box 69" hidden="1">
@@ -4997,7 +5347,7 @@
                   <a14:compatExt spid="_x0000_s1093"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87A3FCCF-7D06-4D2D-843E-1BC9374AC2B9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000045040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5037,20 +5387,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>31</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>33</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1094" name="Check Box 70" hidden="1">
@@ -5059,7 +5414,7 @@
                   <a14:compatExt spid="_x0000_s1094"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C931886F-F78C-47F7-91B8-D6E8D7F4DFAF}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000046040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5099,20 +5454,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>32</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>34</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1095" name="Check Box 71" hidden="1">
@@ -5121,7 +5481,7 @@
                   <a14:compatExt spid="_x0000_s1095"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAEE0642-B89A-46C2-A172-863BFC33125E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000047040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5161,20 +5521,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>32</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>34</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1096" name="Check Box 72" hidden="1">
@@ -5183,7 +5548,7 @@
                   <a14:compatExt spid="_x0000_s1096"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21C1F871-7529-47C0-BF79-9B7307F2B458}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000048040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5223,20 +5588,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>33</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>35</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1097" name="Check Box 73" hidden="1">
@@ -5245,7 +5615,7 @@
                   <a14:compatExt spid="_x0000_s1097"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB7DBA30-DFD5-4AE2-9720-54E8843D3C78}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000049040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5285,20 +5655,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>33</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>35</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1098" name="Check Box 74" hidden="1">
@@ -5307,7 +5682,7 @@
                   <a14:compatExt spid="_x0000_s1098"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEFA87E6-9EA7-4040-9F40-50959C73EB5D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004A040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5347,20 +5722,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>34</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>36</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1099" name="Check Box 75" hidden="1">
@@ -5369,7 +5749,7 @@
                   <a14:compatExt spid="_x0000_s1099"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8207E396-AFBA-4309-B852-0E889D9BB920}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004B040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5409,20 +5789,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>34</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>36</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1100" name="Check Box 76" hidden="1">
@@ -5431,7 +5816,7 @@
                   <a14:compatExt spid="_x0000_s1100"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE542E51-E666-4160-9461-071C39A48632}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004C040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5471,20 +5856,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>35</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>37</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1101" name="Check Box 77" hidden="1">
@@ -5493,7 +5883,7 @@
                   <a14:compatExt spid="_x0000_s1101"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{434E2BD4-EEC7-4586-BCD2-F39D5CAF1B51}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004D040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5533,20 +5923,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>35</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>37</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1102" name="Check Box 78" hidden="1">
@@ -5555,7 +5950,7 @@
                   <a14:compatExt spid="_x0000_s1102"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C12A043-3274-4AED-854D-DEBFBF07D0A8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004E040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5595,20 +5990,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>36</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>38</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1103" name="Check Box 79" hidden="1">
@@ -5617,7 +6017,7 @@
                   <a14:compatExt spid="_x0000_s1103"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5610C84-1CAA-4071-8153-61E922F1E4D3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004F040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5657,20 +6057,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>36</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>38</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1104" name="Check Box 80" hidden="1">
@@ -5679,7 +6084,7 @@
                   <a14:compatExt spid="_x0000_s1104"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0681AF34-29E3-4352-83F7-62EC96DD5880}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000050040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5719,20 +6124,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>37</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>39</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1105" name="Check Box 81" hidden="1">
@@ -5741,7 +6151,7 @@
                   <a14:compatExt spid="_x0000_s1105"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52BDF94D-A070-4FC8-B53D-1569AB5BBC4A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000051040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5781,20 +6191,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>37</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>39</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1106" name="Check Box 82" hidden="1">
@@ -5803,7 +6218,7 @@
                   <a14:compatExt spid="_x0000_s1106"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF738CDA-E7EA-4F22-8C0E-EC46CD92ED84}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000052040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5843,20 +6258,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>38</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>40</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1107" name="Check Box 83" hidden="1">
@@ -5865,7 +6285,7 @@
                   <a14:compatExt spid="_x0000_s1107"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E67261B-DD54-43D3-AAE9-192FAEC2C32E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000053040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5905,20 +6325,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>38</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>40</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1108" name="Check Box 84" hidden="1">
@@ -5927,7 +6352,7 @@
                   <a14:compatExt spid="_x0000_s1108"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D6089F0-0A40-44A8-A07D-755476425D0F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000054040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5967,20 +6392,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>39</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>41</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1109" name="Check Box 85" hidden="1">
@@ -5989,7 +6419,7 @@
                   <a14:compatExt spid="_x0000_s1109"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EA1FDA4-3869-4DCB-8E5D-5F386A907067}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000055040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6029,20 +6459,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>39</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>41</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1110" name="Check Box 86" hidden="1">
@@ -6051,7 +6486,7 @@
                   <a14:compatExt spid="_x0000_s1110"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DDD4819-3FEC-42EE-8910-AD636008DE68}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000056040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6091,20 +6526,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>40</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>42</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1111" name="Check Box 87" hidden="1">
@@ -6113,7 +6553,7 @@
                   <a14:compatExt spid="_x0000_s1111"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E400B11-F00D-4999-8DBE-0D5D3EFC9CAB}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000057040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6153,20 +6593,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>40</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>42</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1112" name="Check Box 88" hidden="1">
@@ -6175,7 +6620,7 @@
                   <a14:compatExt spid="_x0000_s1112"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BACA9109-D27E-49B9-B9ED-D616D76402EA}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000058040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6215,20 +6660,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>41</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>43</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1113" name="Check Box 89" hidden="1">
@@ -6237,7 +6687,7 @@
                   <a14:compatExt spid="_x0000_s1113"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18691429-8F64-486F-A2CB-DE4AC4FEB0EA}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000059040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6277,20 +6727,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>41</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>43</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1114" name="Check Box 90" hidden="1">
@@ -6299,7 +6754,7 @@
                   <a14:compatExt spid="_x0000_s1114"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70A383E0-0623-4CE0-A1BE-142896118270}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005A040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6339,20 +6794,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>42</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>44</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1115" name="Check Box 91" hidden="1">
@@ -6361,7 +6821,7 @@
                   <a14:compatExt spid="_x0000_s1115"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33CB03FF-8780-4C87-9983-880342478859}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005B040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6401,20 +6861,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>42</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>44</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1116" name="Check Box 92" hidden="1">
@@ -6423,7 +6888,7 @@
                   <a14:compatExt spid="_x0000_s1116"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B2B6057-E4CA-4340-9BFB-23630A3A8ABF}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005C040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6463,20 +6928,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>43</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>45</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1117" name="Check Box 93" hidden="1">
@@ -6485,7 +6955,7 @@
                   <a14:compatExt spid="_x0000_s1117"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BF3FE83-5ED1-4FC5-827F-D3759473C473}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005D040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6525,20 +6995,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>43</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>45</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1118" name="Check Box 94" hidden="1">
@@ -6547,7 +7022,7 @@
                   <a14:compatExt spid="_x0000_s1118"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8923EC8D-83B0-4746-AA73-F27D661ED051}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005E040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6587,20 +7062,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>44</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>46</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1119" name="Check Box 95" hidden="1">
@@ -6609,7 +7089,7 @@
                   <a14:compatExt spid="_x0000_s1119"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{134C5FFA-F0E9-4557-AC60-4E129C594B8D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005F040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6649,20 +7129,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>44</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>46</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1120" name="Check Box 96" hidden="1">
@@ -6671,7 +7156,7 @@
                   <a14:compatExt spid="_x0000_s1120"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93594A41-18E2-4D53-A7D6-CE5EBBDF2132}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000060040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6711,20 +7196,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>45</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>47</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1121" name="Check Box 97" hidden="1">
@@ -6733,7 +7223,7 @@
                   <a14:compatExt spid="_x0000_s1121"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79896F66-6866-4415-A2F5-C46DC975C370}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000061040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6773,20 +7263,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>45</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>47</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1122" name="Check Box 98" hidden="1">
@@ -6795,7 +7290,7 @@
                   <a14:compatExt spid="_x0000_s1122"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{875B007A-1083-4993-8968-4DD4A334BEB3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000062040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6835,20 +7330,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>46</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>48</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1123" name="Check Box 99" hidden="1">
@@ -6857,7 +7357,7 @@
                   <a14:compatExt spid="_x0000_s1123"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11037C5F-9819-4F3A-99D1-591677D4233D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000063040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6897,20 +7397,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>46</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>48</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1124" name="Check Box 100" hidden="1">
@@ -6919,7 +7424,7 @@
                   <a14:compatExt spid="_x0000_s1124"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60627F6B-37CB-4F9B-9B0D-F9B58B791271}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000064040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6959,20 +7464,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>47</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>49</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1125" name="Check Box 101" hidden="1">
@@ -6981,7 +7491,7 @@
                   <a14:compatExt spid="_x0000_s1125"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D903C652-824B-42EA-B9CF-B57B9C15323F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000065040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7021,20 +7531,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>47</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>49</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1126" name="Check Box 102" hidden="1">
@@ -7043,7 +7558,7 @@
                   <a14:compatExt spid="_x0000_s1126"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59D653AD-91F9-46BD-A1A5-436821DA9DA3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000066040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7083,20 +7598,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>48</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>50</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1127" name="Check Box 103" hidden="1">
@@ -7105,7 +7625,7 @@
                   <a14:compatExt spid="_x0000_s1127"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDBACF66-BB41-4019-9F3C-61332C24AF99}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000067040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7145,20 +7665,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>48</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>50</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1128" name="Check Box 104" hidden="1">
@@ -7167,7 +7692,7 @@
                   <a14:compatExt spid="_x0000_s1128"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9826D5AC-8CEF-45B2-84E0-8A65B33EA3E5}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000068040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7207,20 +7732,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>49</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>51</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1129" name="Check Box 105" hidden="1">
@@ -7229,7 +7759,7 @@
                   <a14:compatExt spid="_x0000_s1129"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE2A98B1-7EB6-4E49-B8D6-57315F510783}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000069040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7269,20 +7799,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>49</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>51</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1130" name="Check Box 106" hidden="1">
@@ -7291,7 +7826,7 @@
                   <a14:compatExt spid="_x0000_s1130"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7A10B7D-04B8-44D7-8AE6-8D6EA9396AB2}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006A040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7331,20 +7866,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>50</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>52</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1131" name="Check Box 107" hidden="1">
@@ -7353,7 +7893,7 @@
                   <a14:compatExt spid="_x0000_s1131"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3FF9845-69BB-4E46-B9FC-1D35F14392E7}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006B040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7393,20 +7933,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>50</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>52</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1132" name="Check Box 108" hidden="1">
@@ -7415,7 +7960,7 @@
                   <a14:compatExt spid="_x0000_s1132"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAE2AAD6-7892-4C87-B15D-35EF87CF7FBA}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006C040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7455,20 +8000,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>51</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>53</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1133" name="Check Box 109" hidden="1">
@@ -7477,7 +8027,7 @@
                   <a14:compatExt spid="_x0000_s1133"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1FB20FE-D27A-48C9-8383-E741D1545DAF}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006D040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7517,20 +8067,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>51</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>53</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1134" name="Check Box 110" hidden="1">
@@ -7539,7 +8094,7 @@
                   <a14:compatExt spid="_x0000_s1134"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AD70376-5B36-4CB2-BDB9-7C5AAE74AF5E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006E040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7579,20 +8134,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>52</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>54</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1135" name="Check Box 111" hidden="1">
@@ -7601,7 +8161,7 @@
                   <a14:compatExt spid="_x0000_s1135"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB7A6F3A-91E7-4F7E-BC0A-4E81703FB1FE}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006F040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7641,20 +8201,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>52</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>54</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1136" name="Check Box 112" hidden="1">
@@ -7663,7 +8228,7 @@
                   <a14:compatExt spid="_x0000_s1136"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E399A3D-D533-42BC-A437-6B905EB6CB00}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000070040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7703,20 +8268,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>53</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>55</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1137" name="Check Box 113" hidden="1">
@@ -7725,7 +8295,7 @@
                   <a14:compatExt spid="_x0000_s1137"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5457309E-EE05-4646-9969-959EDB480471}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000071040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7765,20 +8335,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>53</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>55</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1138" name="Check Box 114" hidden="1">
@@ -7787,7 +8362,7 @@
                   <a14:compatExt spid="_x0000_s1138"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E60D6E98-DD75-4051-ACB8-B3CEE8B41558}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000072040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7827,20 +8402,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>54</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>56</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1139" name="Check Box 115" hidden="1">
@@ -7849,7 +8429,7 @@
                   <a14:compatExt spid="_x0000_s1139"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20211C3C-5825-4ADB-8D74-FE0902FBD03F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000073040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7889,20 +8469,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>54</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>56</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1140" name="Check Box 116" hidden="1">
@@ -7911,7 +8496,7 @@
                   <a14:compatExt spid="_x0000_s1140"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA584E4E-DA60-4554-B1EE-6FBF6BEDF0E6}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000074040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7951,20 +8536,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>55</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>57</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1141" name="Check Box 117" hidden="1">
@@ -7973,7 +8563,7 @@
                   <a14:compatExt spid="_x0000_s1141"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BCE0029-DB64-434A-9FEE-83A419B3D2E3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000075040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8013,20 +8603,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>55</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>57</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1142" name="Check Box 118" hidden="1">
@@ -8035,7 +8630,7 @@
                   <a14:compatExt spid="_x0000_s1142"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D10811EE-908C-4D5C-B02D-204BC2167844}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000076040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8075,20 +8670,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>56</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>58</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1143" name="Check Box 119" hidden="1">
@@ -8097,7 +8697,7 @@
                   <a14:compatExt spid="_x0000_s1143"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F84D8FFF-5276-41C0-9513-868857180797}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000077040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8137,20 +8737,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>56</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>58</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1144" name="Check Box 120" hidden="1">
@@ -8159,7 +8764,7 @@
                   <a14:compatExt spid="_x0000_s1144"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C72BBF1-4C31-41B4-ABE7-2104AA8BA0AB}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000078040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8199,20 +8804,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>57</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>59</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1145" name="Check Box 121" hidden="1">
@@ -8221,7 +8831,7 @@
                   <a14:compatExt spid="_x0000_s1145"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C296E6F7-E6DE-4F03-9ABC-5C4C82DE6AE4}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000079040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8261,20 +8871,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>57</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>59</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1146" name="Check Box 122" hidden="1">
@@ -8283,7 +8898,7 @@
                   <a14:compatExt spid="_x0000_s1146"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2964BCF2-419A-4E70-864F-292A77463B6A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007A040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8323,20 +8938,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>58</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>60</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1147" name="Check Box 123" hidden="1">
@@ -8345,7 +8965,7 @@
                   <a14:compatExt spid="_x0000_s1147"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37CD1BFB-6435-4CED-8637-F881A20EFFD7}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007B040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8385,20 +9005,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>58</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>60</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1148" name="Check Box 124" hidden="1">
@@ -8407,7 +9032,7 @@
                   <a14:compatExt spid="_x0000_s1148"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22F53E42-986F-4BBB-ACB8-B45A58B4E33A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007C040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8447,20 +9072,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>0</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>15240</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1151" name="Check Box 127" hidden="1">
@@ -8469,7 +9099,7 @@
                   <a14:compatExt spid="_x0000_s1151"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FEA8BC8-3C3C-4187-A500-CA3D67D4B3A4}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007F040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8509,20 +9139,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1152" name="Check Box 128" hidden="1">
@@ -8531,7 +9166,7 @@
                   <a14:compatExt spid="_x0000_s1152"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDCEE5A6-2FFD-457F-B915-A986BD3F00D9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000080040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8571,20 +9206,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1153" name="Check Box 129" hidden="1">
@@ -8593,7 +9233,7 @@
                   <a14:compatExt spid="_x0000_s1153"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{769FEF69-BE31-464B-89A5-1C19AABCD3C0}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000081040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8633,20 +9273,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1154" name="Check Box 130" hidden="1">
@@ -8655,7 +9300,7 @@
                   <a14:compatExt spid="_x0000_s1154"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17FE003E-803C-4F2E-A40F-DCC073FE8349}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000082040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8695,20 +9340,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1155" name="Check Box 131" hidden="1">
@@ -8717,7 +9367,7 @@
                   <a14:compatExt spid="_x0000_s1155"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50C06689-CA7C-4EE2-8AED-9D2EC018B148}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000083040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8757,20 +9407,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1156" name="Check Box 132" hidden="1">
@@ -8779,7 +9434,7 @@
                   <a14:compatExt spid="_x0000_s1156"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5ADCF93F-B2FD-43CA-B8CE-DAC71A83B6DF}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8819,20 +9474,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1157" name="Check Box 133" hidden="1">
@@ -8841,7 +9501,7 @@
                   <a14:compatExt spid="_x0000_s1157"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55DF6CC9-EC68-4F02-973E-FFFDD2B5ED3A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000085040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8881,20 +9541,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1158" name="Check Box 134" hidden="1">
@@ -8903,7 +9568,7 @@
                   <a14:compatExt spid="_x0000_s1158"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A1D79FE-7035-44DF-B4ED-1077AA8D6D25}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000086040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8943,20 +9608,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1159" name="Check Box 135" hidden="1">
@@ -8965,7 +9635,7 @@
                   <a14:compatExt spid="_x0000_s1159"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B454544E-7B6F-4F6B-B1F5-50C473F53D21}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000087040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9005,20 +9675,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1160" name="Check Box 136" hidden="1">
@@ -9027,7 +9702,7 @@
                   <a14:compatExt spid="_x0000_s1160"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89C83EE2-2DAF-4A20-9E94-5076AAC625D5}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000088040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9067,20 +9742,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>10</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1161" name="Check Box 137" hidden="1">
@@ -9089,7 +9769,7 @@
                   <a14:compatExt spid="_x0000_s1161"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A04C73F2-8B9D-46F9-817E-523F334DB26E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000089040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9129,20 +9809,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>11</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1162" name="Check Box 138" hidden="1">
@@ -9151,7 +9836,7 @@
                   <a14:compatExt spid="_x0000_s1162"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B4E3F18-9A71-4F46-814C-0CF4915E1D0A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008A040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9191,20 +9876,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>12</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1163" name="Check Box 139" hidden="1">
@@ -9213,7 +9903,7 @@
                   <a14:compatExt spid="_x0000_s1163"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D43CCD6-5D8C-4241-AABF-65BF2380BB7A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008B040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9253,20 +9943,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>13</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1164" name="Check Box 140" hidden="1">
@@ -9275,7 +9970,7 @@
                   <a14:compatExt spid="_x0000_s1164"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03490454-46A6-49B3-AD40-36FD1406A25B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008C040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9315,20 +10010,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>14</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1165" name="Check Box 141" hidden="1">
@@ -9337,7 +10037,7 @@
                   <a14:compatExt spid="_x0000_s1165"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6951B4D2-C851-4671-839B-1B816387AF10}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008D040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9377,20 +10077,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>15</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1166" name="Check Box 142" hidden="1">
@@ -9399,7 +10104,7 @@
                   <a14:compatExt spid="_x0000_s1166"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69640C33-B67C-416B-B8DA-62B46DA365A6}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008E040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9439,20 +10144,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1167" name="Check Box 143" hidden="1">
@@ -9461,7 +10171,7 @@
                   <a14:compatExt spid="_x0000_s1167"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B38464BB-B48D-41DB-B449-6932894B2DE1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008F040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9501,20 +10211,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>17</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1168" name="Check Box 144" hidden="1">
@@ -9523,7 +10238,7 @@
                   <a14:compatExt spid="_x0000_s1168"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5B1D4DE-6985-480C-997E-85BEE1C51A58}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000090040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9563,20 +10278,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1169" name="Check Box 145" hidden="1">
@@ -9585,7 +10305,7 @@
                   <a14:compatExt spid="_x0000_s1169"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56F35A30-7629-41C5-BAD1-4D8CF325FA16}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000091040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9625,20 +10345,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>19</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1170" name="Check Box 146" hidden="1">
@@ -9647,7 +10372,7 @@
                   <a14:compatExt spid="_x0000_s1170"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4917C172-135F-4538-81A8-F909245ECD53}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000092040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9687,20 +10412,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>20</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1171" name="Check Box 147" hidden="1">
@@ -9709,7 +10439,7 @@
                   <a14:compatExt spid="_x0000_s1171"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CBA6694-FCAD-4ED9-BD4D-7FE9C9EA3796}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000093040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9749,20 +10479,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>21</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>23</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1172" name="Check Box 148" hidden="1">
@@ -9771,7 +10506,7 @@
                   <a14:compatExt spid="_x0000_s1172"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36B2E02D-E196-4B4F-A346-6063CDAD611A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000094040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9811,20 +10546,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>22</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>24</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1173" name="Check Box 149" hidden="1">
@@ -9833,7 +10573,7 @@
                   <a14:compatExt spid="_x0000_s1173"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16C4141C-4AA0-4930-B35A-344BFBBEEFE7}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000095040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9873,20 +10613,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>23</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>25</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1174" name="Check Box 150" hidden="1">
@@ -9895,7 +10640,7 @@
                   <a14:compatExt spid="_x0000_s1174"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3D6474F-3708-4EA4-8368-8241936C2118}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000096040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9935,20 +10680,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>24</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>26</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1175" name="Check Box 151" hidden="1">
@@ -9957,7 +10707,7 @@
                   <a14:compatExt spid="_x0000_s1175"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28736F17-5610-4BE0-B7A5-E84131F794AC}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000097040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9997,20 +10747,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>25</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>27</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1176" name="Check Box 152" hidden="1">
@@ -10019,7 +10774,7 @@
                   <a14:compatExt spid="_x0000_s1176"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5ECAABDF-2A3E-4D5F-AC50-1D8F86DCABA0}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000098040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10059,20 +10814,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>26</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>28</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1177" name="Check Box 153" hidden="1">
@@ -10081,7 +10841,7 @@
                   <a14:compatExt spid="_x0000_s1177"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF8D155D-3B90-4E8D-B6F2-1944F650F1D9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000099040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10121,20 +10881,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>27</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>29</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1178" name="Check Box 154" hidden="1">
@@ -10143,7 +10908,7 @@
                   <a14:compatExt spid="_x0000_s1178"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCDE2310-FBFF-4A30-9727-4F9E4C02BB37}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009A040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10183,20 +10948,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>28</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>30</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1179" name="Check Box 155" hidden="1">
@@ -10205,7 +10975,7 @@
                   <a14:compatExt spid="_x0000_s1179"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D9F4CF8-E3EB-4925-9096-C9BA2E538207}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009B040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10245,20 +11015,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>29</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>31</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1180" name="Check Box 156" hidden="1">
@@ -10267,7 +11042,7 @@
                   <a14:compatExt spid="_x0000_s1180"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CF4AEE9-5E54-470D-8396-9EA01EC63019}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009C040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10307,20 +11082,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>30</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>32</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1181" name="Check Box 157" hidden="1">
@@ -10329,7 +11109,7 @@
                   <a14:compatExt spid="_x0000_s1181"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E615CCB7-BBCD-4A00-B9F4-4663C038106B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009D040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10369,20 +11149,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>31</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>33</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1182" name="Check Box 158" hidden="1">
@@ -10391,7 +11176,7 @@
                   <a14:compatExt spid="_x0000_s1182"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7013B8F1-FA22-4D5E-B4C6-8F573FF891A8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009E040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10431,20 +11216,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>32</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>34</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1183" name="Check Box 159" hidden="1">
@@ -10453,7 +11243,7 @@
                   <a14:compatExt spid="_x0000_s1183"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CACAEDC3-34EB-4A97-9F97-561C6479D54C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009F040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10493,20 +11283,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>33</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>35</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1184" name="Check Box 160" hidden="1">
@@ -10515,7 +11310,7 @@
                   <a14:compatExt spid="_x0000_s1184"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3C1B889-E428-4F14-8371-239D9E0490AF}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A0040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10555,20 +11350,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>34</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>36</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1185" name="Check Box 161" hidden="1">
@@ -10577,7 +11377,7 @@
                   <a14:compatExt spid="_x0000_s1185"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DD2F384-15CA-472A-BC6D-5AEDD45D6F19}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A1040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10617,20 +11417,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>35</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>37</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1186" name="Check Box 162" hidden="1">
@@ -10639,7 +11444,7 @@
                   <a14:compatExt spid="_x0000_s1186"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8E3C8FE-7A80-4912-824D-F1373B546DAD}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A2040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10679,20 +11484,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>36</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>38</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1187" name="Check Box 163" hidden="1">
@@ -10701,7 +11511,7 @@
                   <a14:compatExt spid="_x0000_s1187"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAC4662E-6278-45D7-8DE6-3BAAFA24EEDD}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A3040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10741,20 +11551,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>37</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>39</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1188" name="Check Box 164" hidden="1">
@@ -10763,7 +11578,7 @@
                   <a14:compatExt spid="_x0000_s1188"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55104D44-8F42-4784-AC5C-460F8B0A2585}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A4040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10803,20 +11618,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>38</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>40</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1189" name="Check Box 165" hidden="1">
@@ -10825,7 +11645,7 @@
                   <a14:compatExt spid="_x0000_s1189"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{523C2DCC-E917-4B56-A91D-8ACD2733F24C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A5040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10865,20 +11685,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>39</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>41</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1190" name="Check Box 166" hidden="1">
@@ -10887,7 +11712,7 @@
                   <a14:compatExt spid="_x0000_s1190"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80427F7A-5CC8-404D-A0B8-E5957823846F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A6040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10927,20 +11752,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>40</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>42</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1191" name="Check Box 167" hidden="1">
@@ -10949,7 +11779,7 @@
                   <a14:compatExt spid="_x0000_s1191"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2557DCB9-F06C-4C53-A5EB-C539951BA6E6}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A7040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10989,20 +11819,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>41</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>43</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1192" name="Check Box 168" hidden="1">
@@ -11011,7 +11846,7 @@
                   <a14:compatExt spid="_x0000_s1192"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{833D18DF-260D-4DD1-8EB1-F6FBAF269320}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A8040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11051,20 +11886,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>42</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>44</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1193" name="Check Box 169" hidden="1">
@@ -11073,7 +11913,7 @@
                   <a14:compatExt spid="_x0000_s1193"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E51EA7E2-A3FD-4316-A039-589FFC49E2A5}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A9040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11113,20 +11953,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>43</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>45</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1194" name="Check Box 170" hidden="1">
@@ -11135,7 +11980,7 @@
                   <a14:compatExt spid="_x0000_s1194"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F44BC637-49F5-403C-BFFC-D1E234D6E3C4}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000AA040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11175,20 +12020,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>44</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>46</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1195" name="Check Box 171" hidden="1">
@@ -11197,7 +12047,7 @@
                   <a14:compatExt spid="_x0000_s1195"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF57CB96-1E68-4CAB-9962-A4D14B5326C0}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000AB040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11237,20 +12087,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>45</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>47</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1196" name="Check Box 172" hidden="1">
@@ -11259,7 +12114,7 @@
                   <a14:compatExt spid="_x0000_s1196"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2D11A09-AFB9-4C6B-BFC0-4395A22566B5}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000AC040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11299,20 +12154,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>46</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>48</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1197" name="Check Box 173" hidden="1">
@@ -11321,7 +12181,7 @@
                   <a14:compatExt spid="_x0000_s1197"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE817544-6812-41B5-89AA-CE060416576C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000AD040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11361,20 +12221,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>47</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>49</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1198" name="Check Box 174" hidden="1">
@@ -11383,7 +12248,7 @@
                   <a14:compatExt spid="_x0000_s1198"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1CA049C-C55F-4CE4-8D45-37C1FFDAEEA3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000AE040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11423,20 +12288,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>48</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>50</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1199" name="Check Box 175" hidden="1">
@@ -11445,7 +12315,7 @@
                   <a14:compatExt spid="_x0000_s1199"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6E3CC7C-F1A3-4CF6-B4DA-334486932737}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000AF040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11485,20 +12355,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>49</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>51</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1200" name="Check Box 176" hidden="1">
@@ -11507,7 +12382,7 @@
                   <a14:compatExt spid="_x0000_s1200"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F02ABB3D-63CE-4DC1-A6CB-F01A9FE15572}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B0040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11547,20 +12422,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>50</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>52</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1201" name="Check Box 177" hidden="1">
@@ -11569,7 +12449,7 @@
                   <a14:compatExt spid="_x0000_s1201"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7D83F7B-C83D-4046-A2FC-91BEA6B5FC38}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B1040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11609,20 +12489,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>51</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>53</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1202" name="Check Box 178" hidden="1">
@@ -11631,7 +12516,7 @@
                   <a14:compatExt spid="_x0000_s1202"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DCEAFCB-2DDE-4C5B-8C32-D04F75A48D27}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B2040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11671,20 +12556,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>52</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>54</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1203" name="Check Box 179" hidden="1">
@@ -11693,7 +12583,7 @@
                   <a14:compatExt spid="_x0000_s1203"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B53C34A-9DE7-4D23-8E23-53346C23ED3E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B3040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11733,20 +12623,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>53</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>55</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1204" name="Check Box 180" hidden="1">
@@ -11755,7 +12650,7 @@
                   <a14:compatExt spid="_x0000_s1204"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52D1BF0C-BFCA-4773-9C54-B549E3F8B191}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B4040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11795,20 +12690,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>54</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>56</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1205" name="Check Box 181" hidden="1">
@@ -11817,7 +12717,7 @@
                   <a14:compatExt spid="_x0000_s1205"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C78C5A27-1AAC-471A-9C8B-B7B39ED2363D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B5040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11857,20 +12757,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>55</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>57</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1206" name="Check Box 182" hidden="1">
@@ -11879,7 +12784,7 @@
                   <a14:compatExt spid="_x0000_s1206"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFC8F3A8-690E-4D30-9CD8-85B54033CA61}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B6040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11919,20 +12824,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>56</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>58</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1207" name="Check Box 183" hidden="1">
@@ -11941,7 +12851,7 @@
                   <a14:compatExt spid="_x0000_s1207"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C526835C-48DF-4E0C-8B0F-AAFF137D11E8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B7040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -11981,20 +12891,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>57</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>59</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1208" name="Check Box 184" hidden="1">
@@ -12003,7 +12918,7 @@
                   <a14:compatExt spid="_x0000_s1208"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4475D22-4595-43E4-8AFA-35AE27D2144D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B8040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -12043,20 +12958,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>434340</xdr:colOff>
           <xdr:row>58</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="609600" cy="205740"/>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>1043940</xdr:colOff>
+          <xdr:row>60</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1209" name="Check Box 185" hidden="1">
@@ -12065,7 +12985,7 @@
                   <a14:compatExt spid="_x0000_s1209"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E7921D9-0A01-44B3-BF7F-5CCC94701C69}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B9040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -12105,7 +13025,7 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
@@ -12113,7 +13033,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0E96F8E8-049F-49D1-8BF4-B8B5BF265D19}" name="Table1" displayName="Table1" ref="A1:J60" totalsRowShown="0" headerRowDxfId="11" dataDxfId="12" tableBorderDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0E96F8E8-049F-49D1-8BF4-B8B5BF265D19}" name="Table1" displayName="Table1" ref="A1:J60" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11" tableBorderDxfId="10">
   <autoFilter ref="A1:J60" xr:uid="{B018E31C-09E1-4CAF-A4C8-78D3085E279E}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{2F2AF1DF-73CD-4035-9573-313F81F6204F}" name="Name" dataDxfId="9"/>
@@ -12397,7 +13317,7 @@
   <dimension ref="A1:J60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12478,8 +13398,12 @@
       <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
+      <c r="A4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -12490,8 +13414,12 @@
       <c r="J4" s="3"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
+      <c r="A5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -12502,8 +13430,12 @@
       <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
+      <c r="A6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -12514,8 +13446,12 @@
       <c r="J6" s="3"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
+      <c r="A7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -12526,8 +13462,12 @@
       <c r="J7" s="3"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
+      <c r="A8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -12550,8 +13490,12 @@
       <c r="J9" s="3"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
+      <c r="A10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -12562,8 +13506,12 @@
       <c r="J10" s="3"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
+      <c r="A11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -12574,8 +13522,12 @@
       <c r="J11" s="3"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
+      <c r="A12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -12586,8 +13538,12 @@
       <c r="J12" s="3"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
+      <c r="A13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -12598,8 +13554,12 @@
       <c r="J13" s="3"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
+      <c r="A14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -12622,8 +13582,12 @@
       <c r="J15" s="3"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
+      <c r="A16" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -12634,8 +13598,12 @@
       <c r="J16" s="3"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
+      <c r="A17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -12646,8 +13614,12 @@
       <c r="J17" s="3"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
+      <c r="A18" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
@@ -12658,8 +13630,12 @@
       <c r="J18" s="3"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
+      <c r="A19" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
@@ -12670,8 +13646,12 @@
       <c r="J19" s="3"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
+      <c r="A20" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
